--- a/insumos/PoliticaExterior_MovilidadHumana_22Junio - pruebas11.xlsx
+++ b/insumos/PoliticaExterior_MovilidadHumana_22Junio - pruebas11.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PlataformaDialogo\insumos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="360" windowWidth="12000" windowHeight="4365" activeTab="1"/>
   </bookViews>
@@ -18,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Propuestas!$A$1:$N$25</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -3356,6 +3361,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3415,7 +3423,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3450,7 +3458,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3670,7 +3678,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="119.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="119.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3757,7 +3765,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>814</v>
       </c>
@@ -3767,7 +3775,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>816</v>
       </c>
@@ -3781,7 +3789,7 @@
       <c r="D24" s="46"/>
       <c r="E24" s="46"/>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>818</v>
       </c>
@@ -3844,7 +3852,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>831</v>
       </c>
@@ -3867,14 +3875,14 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.85546875" style="2"/>
+    <col min="1" max="1" width="44.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4032,7 +4040,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="39">
-        <v>43791</v>
+        <v>43794</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>834</v>
@@ -4076,14 +4084,14 @@
       <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="13" customWidth="1"/>
-    <col min="5" max="10" width="21.5703125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.85546875" style="2"/>
+    <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="13" customWidth="1"/>
+    <col min="5" max="10" width="21.625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4129,22 +4137,22 @@
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="53" style="1" customWidth="1"/>
     <col min="4" max="5" width="28" style="1" customWidth="1"/>
-    <col min="6" max="7" width="21.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="21.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.25" style="2" customWidth="1"/>
     <col min="9" max="14" width="26" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" style="2"/>
-    <col min="16" max="16" width="15.42578125" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="10.85546875" style="2"/>
+    <col min="15" max="15" width="10.875" style="2"/>
+    <col min="16" max="16" width="15.375" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="5" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4283,7 +4291,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>919</v>
       </c>
@@ -4339,7 +4347,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>919</v>
       </c>
@@ -4397,7 +4405,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>919</v>
       </c>
@@ -4455,7 +4463,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>919</v>
       </c>
@@ -4513,7 +4521,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>919</v>
       </c>
@@ -4683,7 +4691,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>919</v>
       </c>
@@ -4967,7 +4975,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>919</v>
       </c>
@@ -5067,7 +5075,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>919</v>
       </c>
@@ -5123,7 +5131,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>919</v>
       </c>
@@ -5179,7 +5187,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>919</v>
       </c>
@@ -5235,7 +5243,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>919</v>
       </c>
@@ -5291,7 +5299,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>919</v>
       </c>
@@ -5403,7 +5411,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>919</v>
       </c>
@@ -5459,7 +5467,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
         <v>919</v>
       </c>
@@ -5515,7 +5523,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
         <v>919</v>
       </c>
@@ -5591,13 +5599,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
-    <col min="7" max="8" width="45.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.125" customWidth="1"/>
+    <col min="6" max="6" width="26.375" customWidth="1"/>
+    <col min="7" max="8" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
@@ -5998,9 +6006,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="89.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="89.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
@@ -7421,7 +7429,7 @@
         <v>Institucion::create(array('nombre_institucion' =&gt; 'Empresa Pública YACHAY E.P.','siglas_institucion' =&gt; 'EPYEP'));</v>
       </c>
     </row>
-    <row r="112" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="21" t="s">
         <v>373</v>
       </c>
@@ -8406,7 +8414,7 @@
         <v>Institucion::create(array('nombre_institucion' =&gt; 'Gobierno Cantonal de Pindal','siglas_institucion' =&gt; 'GCP'));</v>
       </c>
     </row>
-    <row r="191" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" s="21" t="s">
         <v>521</v>
       </c>
@@ -10145,8 +10153,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="3" max="3" width="62.140625" customWidth="1"/>
-    <col min="4" max="4" width="72.7109375" customWidth="1"/>
+    <col min="3" max="3" width="62.125" customWidth="1"/>
+    <col min="4" max="4" width="72.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.25"/>
